--- a/Data_preparation/datasets/final_data/MICROCHIP_TECHNOLOGY_INC.xlsx
+++ b/Data_preparation/datasets/final_data/MICROCHIP_TECHNOLOGY_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>19.81693648186462</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>19.35400009155273</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>20.45448944734193</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>19.09410608640153</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>539679667</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>9850836931</v>
@@ -888,22 +780,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>19.59466919744172</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>17.52475166320801</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>19.6192126687538</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>16.73523775243184</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>539679667</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>9595178946</v>
@@ -1016,22 +908,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>17.76883405873871</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>19.91313552856445</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>20.45333346668414</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>17.05131721081299</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>539679667</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>9095917610</v>
@@ -1144,22 +1036,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>18.97645025745353</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>18.62318801879883</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>19.2465930884726</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>16.47451772091467</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>539679667</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>9453313378</v>
@@ -1272,22 +1164,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>20.08054212786136</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>20.36555099487305</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>21.24153380107096</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>19.91708148919265</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>539679667</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>9808748730</v>
@@ -1400,22 +1292,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>21.36294229748012</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>23.49543571472168</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>24.80449224404243</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>20.6788556479555</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>539679667</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>10904020719</v>
@@ -1516,22 +1408,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>26.36215604546758</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>25.72072982788086</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>26.59153869969209</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>24.43363187638488</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>539679667</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>13378023848</v>
@@ -1644,22 +1536,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>27.55439599915982</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>28.76745414733887</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>29.5106658755721</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>26.57198718209643</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>539679667</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>13857436856</v>
@@ -1772,22 +1664,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>31.74164841277895</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>32.44568252563477</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>33.19264490874432</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>30.65125331720539</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>539679667</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>15968365134</v>
@@ -1900,22 +1792,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>33.5215896771575</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>34.51779174804688</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>35.95818775893925</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>32.68926399192877</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>539679667</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>17704928147</v>
@@ -2016,22 +1908,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>39.14103643925164</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>41.05975723266602</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>41.44523357971038</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>38.9894418698669</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>539679667</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>20894360151</v>
@@ -2144,22 +2036,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>38.51890408079754</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>41.40629959106445</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>43.12395087153036</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>38.37975260985574</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>539679667</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>20555605410</v>
@@ -2260,22 +2152,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>39.73983479199187</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>36.5384635925293</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>39.96257796281496</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>35.49899768344432</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>539679667</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>21409582053</v>
@@ -2379,22 +2271,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>39.55775010474248</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>40.96520233154297</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>42.49104029756656</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>39.110520293505</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>539679667</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>21376588138</v>
@@ -2507,22 +2399,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>34.92292524220144</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>28.96885108947754</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>35.09907853862872</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>26.73167096175434</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>539679667</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>18587868207</v>
@@ -2635,22 +2527,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>31.0998452125534</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>35.56986999511719</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>36.17177422866585</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>29.28085913544141</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>539679667</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>17009775035</v>
@@ -2751,22 +2643,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>37.38885107756261</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>44.38759613037109</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>44.56089811760286</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>37.37552067704233</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>539679667</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>19658944341</v>
@@ -2879,22 +2771,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>40.28546342551344</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>42.14218139648438</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>44.65946461999538</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>38.88845817131561</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>539679667</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>20628228244</v>
@@ -3007,16 +2899,16 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>42.5158204809004</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>42.25589370727539</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>43.85578262629921</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>39.92552104234334</v>
       </c>
       <c r="H20">
         <v>539679667</v>
@@ -3135,22 +3027,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>47.70615065146252</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>43.85924530029297</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>50.60370540202903</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>43.61178204698729</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>539679667</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>25025738042</v>
@@ -3263,22 +3155,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>29.38870009393426</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>39.60477447509766</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>41.85745579806255</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>27.81769141081628</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>539679667</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>16240681553</v>
@@ -3391,22 +3283,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>47.65880383559927</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>46.11747741699219</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>49.92093357164411</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>45.02947965312577</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>539679667</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>25835965259</v>
@@ -3519,22 +3411,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>48.25370847608574</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>47.798828125</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>53.02085261200573</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>46.55700323953281</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>539679667</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>25941917681</v>
@@ -3647,22 +3539,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>63.3929779055899</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>62.0972900390625</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>70.87969271257363</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>60.46855020172884</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>539679667</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>35960551181</v>
@@ -3775,22 +3667,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>72.03548133110579</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>68.73785400390625</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>75.22790896235873</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>67.64474443937054</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>539679667</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>41794849658</v>
@@ -3903,22 +3795,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>68.72971693859773</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>65.64295196533203</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>69.20213283225658</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>59.19423916586787</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>539679667</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>40958593184</v>
@@ -4031,22 +3923,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>71.12469442965109</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>68.17112731933594</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>71.16609780468053</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>64.2790556287501</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>539679667</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>42062425847</v>
@@ -4159,22 +4051,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>80.75434739721622</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>71.49048614501953</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>82.09226076423309</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>63.45379813105307</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>539679667</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>48307044187</v>
@@ -4287,22 +4179,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>70.0694899585865</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>60.37439727783203</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>70.36580575012617</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>58.65206306414378</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>539679667</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>41777143377</v>
@@ -4415,22 +4307,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>53.18845437543131</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>64.03071594238281</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>64.44915373663841</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>50.51973400462681</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>539679667</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>32205435504</v>
@@ -4543,22 +4435,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>58.09098928328942</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>57.6521110534668</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>63.86180324860094</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>51.14360322232878</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>539679667</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>33718110238</v>
@@ -4671,22 +4563,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>66.86548830200324</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>72.80262756347656</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>73.72180124862521</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>64.1642339860382</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>539679667</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>38638111878</v>
@@ -4799,22 +4691,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>78.69745525351178</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>68.75077056884766</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>79.43215204333096</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>66.21700948425107</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>539679667</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>45894340251</v>
@@ -4927,22 +4819,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>85.86158439712732</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>88.9189453125</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>89.25970402819497</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>81.31814689053806</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>539679667</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>48860955696</v>
@@ -5055,22 +4947,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>74.48051994898105</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>67.82979583740234</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>77.7059788287086</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>65.85075112243541</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>539679667</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>42485291022</v>
@@ -5183,22 +5075,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>85.25523184900275</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>81.46781158447266</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>88.66964910014818</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>78.15860105986154</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>539679667</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>48791464974</v>
@@ -5311,22 +5203,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>86.29424630654887</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>88.4482421875</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>90.99648412484908</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>77.79367978671276</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>539679667</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>48478202905</v>
@@ -5439,22 +5331,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>88.40091618046965</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>85.77304077148438</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>93.69531309221804</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>80.13084375771258</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>539679667</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>49125068634</v>
@@ -5567,22 +5459,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>77.70676833571524</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>71.27573394775391</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>78.0370672508877</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>70.59571025727955</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>539679667</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>43075992632</v>
@@ -5695,22 +5587,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>56.76190899844286</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>53.11341857910156</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>58.5519210540414</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>52.80041161823252</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>539679667</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>30797536920</v>
@@ -5811,22 +5703,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>47.71742775524408</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>45.41138458251953</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>48.75219534425183</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>33.63477740275318</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>539679667</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>26035816289</v>
@@ -5927,22 +5819,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>68.98187118333068</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>67.12474060058594</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>76.66859077208977</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>66.27066738128168</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>539679667</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>37957539015</v>
